--- a/convert record.xlsx
+++ b/convert record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WOWServer\Source\OregonCoreScriptConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2909599D-CB5F-4082-87BA-F02558DC0878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF1823-ADC1-47A8-B9BC-51D784458F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3048" windowWidth="23040" windowHeight="11748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="2856" windowWidth="23040" windowHeight="11748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nov29" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Nov30Check" sheetId="3" r:id="rId3"/>
     <sheet name="Nov30WithHooks" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Nov30WithHooks!$A$1:$C$379</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4570" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="836">
   <si>
     <t>Custom\custom_example.cpp</t>
   </si>
@@ -2532,6 +2535,18 @@
   </si>
   <si>
     <t>could not found struct</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>need manual</t>
+  </si>
+  <si>
+    <t>how to do instances?</t>
+  </si>
+  <si>
+    <t>complex and needs help</t>
   </si>
 </sst>
 </file>
@@ -15492,14 +15507,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A48C7-9B10-412F-91BC-CBD9EE1FD7EE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="E381" sqref="E381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" customWidth="1"/>
     <col min="9" max="9" width="55.44140625" customWidth="1"/>
   </cols>
@@ -15525,7 +15542,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>414</v>
       </c>
@@ -15546,7 +15563,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>415</v>
       </c>
@@ -15577,6 +15594,9 @@
       <c r="C4" t="s">
         <v>417</v>
       </c>
+      <c r="F4" t="s">
+        <v>832</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>410</v>
       </c>
@@ -15588,7 +15608,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>418</v>
       </c>
@@ -15609,7 +15629,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>419</v>
       </c>
@@ -15620,7 +15640,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>420</v>
       </c>
@@ -15631,7 +15651,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>422</v>
       </c>
@@ -15642,7 +15662,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>423</v>
       </c>
@@ -15653,7 +15673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -15664,7 +15684,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>425</v>
       </c>
@@ -15675,7 +15695,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -15686,7 +15706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -15697,7 +15717,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>428</v>
       </c>
@@ -15708,7 +15728,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>429</v>
       </c>
@@ -15729,8 +15749,11 @@
       <c r="C16" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>432</v>
       </c>
@@ -15741,7 +15764,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -15751,8 +15774,11 @@
       <c r="C18" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>435</v>
       </c>
@@ -15763,7 +15789,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>436</v>
       </c>
@@ -15774,7 +15800,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>437</v>
       </c>
@@ -15785,7 +15811,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>438</v>
       </c>
@@ -15796,7 +15822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>439</v>
       </c>
@@ -15807,7 +15833,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>440</v>
       </c>
@@ -15818,7 +15844,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>441</v>
       </c>
@@ -15829,7 +15855,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>442</v>
       </c>
@@ -15840,7 +15866,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>443</v>
       </c>
@@ -15851,7 +15877,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>444</v>
       </c>
@@ -15862,7 +15888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>445</v>
       </c>
@@ -15873,7 +15899,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>446</v>
       </c>
@@ -15884,7 +15910,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>447</v>
       </c>
@@ -15895,7 +15921,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -15906,7 +15932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15917,7 +15943,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>450</v>
       </c>
@@ -15928,7 +15954,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>451</v>
       </c>
@@ -15939,7 +15965,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>452</v>
       </c>
@@ -15950,7 +15976,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>453</v>
       </c>
@@ -15961,7 +15987,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>454</v>
       </c>
@@ -15972,7 +15998,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>455</v>
       </c>
@@ -15983,7 +16009,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>456</v>
       </c>
@@ -15994,7 +16020,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>457</v>
       </c>
@@ -16005,7 +16031,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>458</v>
       </c>
@@ -16016,7 +16042,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>459</v>
       </c>
@@ -16027,7 +16053,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>460</v>
       </c>
@@ -16038,7 +16064,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>461</v>
       </c>
@@ -16049,7 +16075,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>462</v>
       </c>
@@ -16060,7 +16086,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>463</v>
       </c>
@@ -16071,7 +16097,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>464</v>
       </c>
@@ -16082,7 +16108,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>465</v>
       </c>
@@ -16093,7 +16119,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>466</v>
       </c>
@@ -16103,8 +16129,11 @@
       <c r="C50" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>468</v>
       </c>
@@ -16115,7 +16144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>469</v>
       </c>
@@ -16126,7 +16155,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>470</v>
       </c>
@@ -16137,7 +16166,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>471</v>
       </c>
@@ -16148,7 +16177,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>472</v>
       </c>
@@ -16159,7 +16188,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>473</v>
       </c>
@@ -16170,7 +16199,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>474</v>
       </c>
@@ -16181,7 +16210,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>475</v>
       </c>
@@ -16192,7 +16221,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>476</v>
       </c>
@@ -16203,7 +16232,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -16214,7 +16243,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>478</v>
       </c>
@@ -16225,7 +16254,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>479</v>
       </c>
@@ -16236,7 +16265,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>480</v>
       </c>
@@ -16247,7 +16276,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -16258,7 +16287,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>482</v>
       </c>
@@ -16269,7 +16298,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>483</v>
       </c>
@@ -16280,7 +16309,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>484</v>
       </c>
@@ -16291,7 +16320,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>485</v>
       </c>
@@ -16302,7 +16331,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>486</v>
       </c>
@@ -16313,7 +16342,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>487</v>
       </c>
@@ -16323,8 +16352,11 @@
       <c r="C70" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>489</v>
       </c>
@@ -16335,7 +16367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>490</v>
       </c>
@@ -16346,7 +16378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>491</v>
       </c>
@@ -16357,7 +16389,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>492</v>
       </c>
@@ -16367,8 +16399,11 @@
       <c r="C74" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>494</v>
       </c>
@@ -16379,7 +16414,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>496</v>
       </c>
@@ -16390,7 +16425,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>497</v>
       </c>
@@ -16401,7 +16436,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>499</v>
       </c>
@@ -16412,7 +16447,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>500</v>
       </c>
@@ -16423,7 +16458,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>501</v>
       </c>
@@ -16434,7 +16469,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>502</v>
       </c>
@@ -16445,7 +16480,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>503</v>
       </c>
@@ -16456,7 +16491,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>504</v>
       </c>
@@ -16467,7 +16502,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>505</v>
       </c>
@@ -16478,7 +16513,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>506</v>
       </c>
@@ -16489,7 +16524,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>507</v>
       </c>
@@ -16500,7 +16535,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>508</v>
       </c>
@@ -16511,7 +16546,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>509</v>
       </c>
@@ -16533,7 +16568,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>512</v>
       </c>
@@ -16544,7 +16579,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>513</v>
       </c>
@@ -16555,7 +16590,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>514</v>
       </c>
@@ -16566,7 +16601,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>515</v>
       </c>
@@ -16577,7 +16612,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>516</v>
       </c>
@@ -16599,7 +16634,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>519</v>
       </c>
@@ -16610,7 +16645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>520</v>
       </c>
@@ -16621,7 +16656,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>521</v>
       </c>
@@ -16632,7 +16667,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>522</v>
       </c>
@@ -16643,7 +16678,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>523</v>
       </c>
@@ -16654,7 +16689,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>524</v>
       </c>
@@ -16665,7 +16700,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>525</v>
       </c>
@@ -16676,7 +16711,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>526</v>
       </c>
@@ -16687,7 +16722,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>527</v>
       </c>
@@ -16698,7 +16733,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>528</v>
       </c>
@@ -16709,7 +16744,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>529</v>
       </c>
@@ -16731,7 +16766,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>532</v>
       </c>
@@ -16742,7 +16777,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>533</v>
       </c>
@@ -16753,7 +16788,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>534</v>
       </c>
@@ -16764,7 +16799,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>535</v>
       </c>
@@ -16775,7 +16810,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>536</v>
       </c>
@@ -16786,7 +16821,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>537</v>
       </c>
@@ -16797,7 +16832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>538</v>
       </c>
@@ -16808,7 +16843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>539</v>
       </c>
@@ -16819,7 +16854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>540</v>
       </c>
@@ -16830,7 +16865,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>541</v>
       </c>
@@ -16841,7 +16876,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>542</v>
       </c>
@@ -16852,7 +16887,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>543</v>
       </c>
@@ -16863,7 +16898,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>544</v>
       </c>
@@ -16874,7 +16909,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>545</v>
       </c>
@@ -16885,7 +16920,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>546</v>
       </c>
@@ -16896,7 +16931,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>547</v>
       </c>
@@ -16907,7 +16942,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>548</v>
       </c>
@@ -16918,7 +16953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>549</v>
       </c>
@@ -16929,7 +16964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>550</v>
       </c>
@@ -16940,7 +16975,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>551</v>
       </c>
@@ -16951,7 +16986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>552</v>
       </c>
@@ -16962,7 +16997,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>553</v>
       </c>
@@ -16973,7 +17008,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>554</v>
       </c>
@@ -16984,7 +17019,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>555</v>
       </c>
@@ -16995,7 +17030,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>556</v>
       </c>
@@ -17006,7 +17041,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>557</v>
       </c>
@@ -17017,7 +17052,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>558</v>
       </c>
@@ -17028,7 +17063,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>559</v>
       </c>
@@ -17050,7 +17085,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>562</v>
       </c>
@@ -17061,7 +17096,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>563</v>
       </c>
@@ -17072,7 +17107,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>564</v>
       </c>
@@ -17083,7 +17118,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>565</v>
       </c>
@@ -17094,7 +17129,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>566</v>
       </c>
@@ -17105,7 +17140,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>567</v>
       </c>
@@ -17116,7 +17151,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>568</v>
       </c>
@@ -17127,7 +17162,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>569</v>
       </c>
@@ -17138,7 +17173,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>570</v>
       </c>
@@ -17149,7 +17184,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>571</v>
       </c>
@@ -17160,7 +17195,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>572</v>
       </c>
@@ -17171,7 +17206,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>573</v>
       </c>
@@ -17193,7 +17228,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>576</v>
       </c>
@@ -17215,7 +17250,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>579</v>
       </c>
@@ -17226,7 +17261,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>580</v>
       </c>
@@ -17237,7 +17272,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>581</v>
       </c>
@@ -17248,7 +17283,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>582</v>
       </c>
@@ -17259,7 +17294,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>583</v>
       </c>
@@ -17270,7 +17305,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>584</v>
       </c>
@@ -17281,7 +17316,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>585</v>
       </c>
@@ -17292,7 +17327,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>586</v>
       </c>
@@ -17303,7 +17338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>587</v>
       </c>
@@ -17314,7 +17349,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>588</v>
       </c>
@@ -17325,7 +17360,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>589</v>
       </c>
@@ -17336,7 +17371,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>590</v>
       </c>
@@ -17358,7 +17393,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>593</v>
       </c>
@@ -17369,7 +17404,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>594</v>
       </c>
@@ -17380,7 +17415,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>595</v>
       </c>
@@ -17402,7 +17437,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>598</v>
       </c>
@@ -17413,7 +17448,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>599</v>
       </c>
@@ -17424,7 +17459,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>600</v>
       </c>
@@ -17435,7 +17470,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>601</v>
       </c>
@@ -17446,7 +17481,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>602</v>
       </c>
@@ -17457,7 +17492,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>603</v>
       </c>
@@ -17468,7 +17503,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>604</v>
       </c>
@@ -17490,7 +17525,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>607</v>
       </c>
@@ -17501,7 +17536,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>608</v>
       </c>
@@ -17512,7 +17547,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>609</v>
       </c>
@@ -17534,7 +17569,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>612</v>
       </c>
@@ -17545,7 +17580,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>613</v>
       </c>
@@ -17556,7 +17591,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>614</v>
       </c>
@@ -17567,7 +17602,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>615</v>
       </c>
@@ -17578,7 +17613,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>616</v>
       </c>
@@ -17589,7 +17624,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>617</v>
       </c>
@@ -17600,7 +17635,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>618</v>
       </c>
@@ -17622,7 +17657,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>621</v>
       </c>
@@ -17633,7 +17668,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>622</v>
       </c>
@@ -17644,7 +17679,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>623</v>
       </c>
@@ -17655,7 +17690,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>624</v>
       </c>
@@ -17666,7 +17701,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>625</v>
       </c>
@@ -17677,7 +17712,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>626</v>
       </c>
@@ -17688,7 +17723,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>627</v>
       </c>
@@ -17699,7 +17734,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>628</v>
       </c>
@@ -17710,7 +17745,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>629</v>
       </c>
@@ -17721,7 +17756,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>630</v>
       </c>
@@ -17732,7 +17767,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>631</v>
       </c>
@@ -17743,7 +17778,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>632</v>
       </c>
@@ -17754,7 +17789,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>633</v>
       </c>
@@ -17765,7 +17800,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>634</v>
       </c>
@@ -17787,7 +17822,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>637</v>
       </c>
@@ -17798,7 +17833,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>638</v>
       </c>
@@ -17809,7 +17844,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>639</v>
       </c>
@@ -17820,7 +17855,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>640</v>
       </c>
@@ -17831,7 +17866,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>641</v>
       </c>
@@ -17842,7 +17877,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>642</v>
       </c>
@@ -17853,7 +17888,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>643</v>
       </c>
@@ -17864,7 +17899,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>644</v>
       </c>
@@ -17875,7 +17910,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>645</v>
       </c>
@@ -17886,7 +17921,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>646</v>
       </c>
@@ -17896,8 +17931,11 @@
       <c r="C213" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F213" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>648</v>
       </c>
@@ -17908,7 +17946,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>649</v>
       </c>
@@ -17919,7 +17957,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>650</v>
       </c>
@@ -17930,7 +17968,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>651</v>
       </c>
@@ -17941,7 +17979,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>652</v>
       </c>
@@ -17952,7 +17990,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>653</v>
       </c>
@@ -17963,7 +18001,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>654</v>
       </c>
@@ -17974,7 +18012,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>655</v>
       </c>
@@ -17985,7 +18023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>656</v>
       </c>
@@ -17996,7 +18034,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>657</v>
       </c>
@@ -18007,7 +18045,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>658</v>
       </c>
@@ -18018,7 +18056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>659</v>
       </c>
@@ -18029,7 +18067,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>660</v>
       </c>
@@ -18040,7 +18078,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>661</v>
       </c>
@@ -18051,7 +18089,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>662</v>
       </c>
@@ -18062,7 +18100,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>663</v>
       </c>
@@ -18073,7 +18111,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>664</v>
       </c>
@@ -18095,7 +18133,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>667</v>
       </c>
@@ -18106,7 +18144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>668</v>
       </c>
@@ -18117,7 +18155,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>669</v>
       </c>
@@ -18128,7 +18166,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>670</v>
       </c>
@@ -18150,7 +18188,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>673</v>
       </c>
@@ -18161,7 +18199,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>674</v>
       </c>
@@ -18172,7 +18210,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>675</v>
       </c>
@@ -18183,7 +18221,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>676</v>
       </c>
@@ -18194,7 +18232,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>677</v>
       </c>
@@ -18205,7 +18243,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>678</v>
       </c>
@@ -18216,7 +18254,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>679</v>
       </c>
@@ -18227,7 +18265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>680</v>
       </c>
@@ -18249,7 +18287,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>683</v>
       </c>
@@ -18260,7 +18298,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>684</v>
       </c>
@@ -18271,7 +18309,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>685</v>
       </c>
@@ -18282,7 +18320,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>686</v>
       </c>
@@ -18293,7 +18331,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>687</v>
       </c>
@@ -18304,7 +18342,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>688</v>
       </c>
@@ -18315,7 +18353,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>689</v>
       </c>
@@ -18326,7 +18364,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>690</v>
       </c>
@@ -18337,7 +18375,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>691</v>
       </c>
@@ -18348,7 +18386,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>692</v>
       </c>
@@ -18359,7 +18397,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>693</v>
       </c>
@@ -18381,7 +18419,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>696</v>
       </c>
@@ -18403,7 +18441,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>699</v>
       </c>
@@ -18414,7 +18452,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>700</v>
       </c>
@@ -18425,7 +18463,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>701</v>
       </c>
@@ -18436,7 +18474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>702</v>
       </c>
@@ -18447,7 +18485,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>703</v>
       </c>
@@ -18458,7 +18496,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>704</v>
       </c>
@@ -18469,7 +18507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>705</v>
       </c>
@@ -18480,7 +18518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>706</v>
       </c>
@@ -18491,7 +18529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>707</v>
       </c>
@@ -18502,7 +18540,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>708</v>
       </c>
@@ -18513,7 +18551,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>709</v>
       </c>
@@ -18524,7 +18562,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>710</v>
       </c>
@@ -18535,7 +18573,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>711</v>
       </c>
@@ -18546,7 +18584,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>712</v>
       </c>
@@ -18557,7 +18595,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>713</v>
       </c>
@@ -18568,7 +18606,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>714</v>
       </c>
@@ -18579,7 +18617,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>715</v>
       </c>
@@ -18590,7 +18628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>716</v>
       </c>
@@ -18601,7 +18639,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>718</v>
       </c>
@@ -18611,8 +18649,11 @@
       <c r="C278" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F278" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>719</v>
       </c>
@@ -18623,7 +18664,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>721</v>
       </c>
@@ -18634,7 +18675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>722</v>
       </c>
@@ -18645,7 +18686,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>724</v>
       </c>
@@ -18656,7 +18697,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>725</v>
       </c>
@@ -18667,7 +18708,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>726</v>
       </c>
@@ -18678,7 +18719,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>727</v>
       </c>
@@ -18689,7 +18730,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>728</v>
       </c>
@@ -18700,7 +18741,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>729</v>
       </c>
@@ -18711,7 +18752,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>730</v>
       </c>
@@ -18722,7 +18763,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>731</v>
       </c>
@@ -18733,7 +18774,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>732</v>
       </c>
@@ -18744,7 +18785,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>733</v>
       </c>
@@ -18755,7 +18796,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>734</v>
       </c>
@@ -18766,7 +18807,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>735</v>
       </c>
@@ -18777,7 +18818,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>736</v>
       </c>
@@ -18788,7 +18829,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>737</v>
       </c>
@@ -18799,7 +18840,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>738</v>
       </c>
@@ -18810,7 +18851,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>739</v>
       </c>
@@ -18821,7 +18862,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>740</v>
       </c>
@@ -18832,7 +18873,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>741</v>
       </c>
@@ -18843,7 +18884,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>742</v>
       </c>
@@ -18854,7 +18895,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>743</v>
       </c>
@@ -18865,7 +18906,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>744</v>
       </c>
@@ -18876,7 +18917,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>745</v>
       </c>
@@ -18887,7 +18928,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>746</v>
       </c>
@@ -18909,7 +18950,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>749</v>
       </c>
@@ -18920,7 +18961,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>750</v>
       </c>
@@ -18931,7 +18972,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>751</v>
       </c>
@@ -18942,7 +18983,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>752</v>
       </c>
@@ -18953,7 +18994,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>753</v>
       </c>
@@ -18964,7 +19005,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>754</v>
       </c>
@@ -18975,7 +19016,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>755</v>
       </c>
@@ -18986,7 +19027,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>756</v>
       </c>
@@ -18997,7 +19038,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>757</v>
       </c>
@@ -19008,7 +19049,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>758</v>
       </c>
@@ -19030,7 +19071,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>761</v>
       </c>
@@ -19041,7 +19082,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>762</v>
       </c>
@@ -19052,7 +19093,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>763</v>
       </c>
@@ -19063,7 +19104,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>764</v>
       </c>
@@ -19074,7 +19115,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>765</v>
       </c>
@@ -19085,7 +19126,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>766</v>
       </c>
@@ -19096,7 +19137,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>767</v>
       </c>
@@ -19107,7 +19148,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>768</v>
       </c>
@@ -19118,7 +19159,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>769</v>
       </c>
@@ -19129,7 +19170,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>770</v>
       </c>
@@ -19140,7 +19181,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>771</v>
       </c>
@@ -19151,7 +19192,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>772</v>
       </c>
@@ -19162,7 +19203,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>773</v>
       </c>
@@ -19173,7 +19214,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>774</v>
       </c>
@@ -19184,7 +19225,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>775</v>
       </c>
@@ -19206,7 +19247,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>778</v>
       </c>
@@ -19217,7 +19258,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>779</v>
       </c>
@@ -19228,7 +19269,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>780</v>
       </c>
@@ -19239,7 +19280,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>781</v>
       </c>
@@ -19250,7 +19291,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>782</v>
       </c>
@@ -19261,7 +19302,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>783</v>
       </c>
@@ -19272,7 +19313,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>784</v>
       </c>
@@ -19294,7 +19335,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>787</v>
       </c>
@@ -19316,7 +19357,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>790</v>
       </c>
@@ -19327,7 +19368,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>791</v>
       </c>
@@ -19338,7 +19379,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>792</v>
       </c>
@@ -19349,7 +19390,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>793</v>
       </c>
@@ -19360,7 +19401,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>794</v>
       </c>
@@ -19371,7 +19412,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>795</v>
       </c>
@@ -19382,7 +19423,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>796</v>
       </c>
@@ -19393,7 +19434,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>797</v>
       </c>
@@ -19415,7 +19456,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>800</v>
       </c>
@@ -19426,7 +19467,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>801</v>
       </c>
@@ -19437,7 +19478,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>802</v>
       </c>
@@ -19448,7 +19489,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>803</v>
       </c>
@@ -19459,7 +19500,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>804</v>
       </c>
@@ -19470,7 +19511,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>805</v>
       </c>
@@ -19481,7 +19522,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>806</v>
       </c>
@@ -19503,7 +19544,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>809</v>
       </c>
@@ -19514,7 +19555,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>810</v>
       </c>
@@ -19525,7 +19566,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>811</v>
       </c>
@@ -19536,7 +19577,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>812</v>
       </c>
@@ -19547,7 +19588,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>813</v>
       </c>
@@ -19558,7 +19599,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>814</v>
       </c>
@@ -19580,7 +19621,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>817</v>
       </c>
@@ -19591,7 +19632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>818</v>
       </c>
@@ -19602,7 +19643,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>819</v>
       </c>
@@ -19613,7 +19654,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>820</v>
       </c>
@@ -19624,7 +19665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>821</v>
       </c>
@@ -19635,7 +19676,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>822</v>
       </c>
@@ -19646,7 +19687,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>823</v>
       </c>
@@ -19657,7 +19698,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>824</v>
       </c>
@@ -19668,7 +19709,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>825</v>
       </c>
@@ -19679,7 +19720,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>826</v>
       </c>
@@ -19690,7 +19731,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>827</v>
       </c>
@@ -19701,7 +19742,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>828</v>
       </c>
@@ -19711,8 +19752,11 @@
       <c r="C378" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F378" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>830</v>
       </c>
@@ -19724,6 +19768,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C379" xr:uid="{652258F9-5E0F-42E3-946E-B02E36445066}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="manual"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>